--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>地址</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>/nacos-console/src/main/java/com/alibaba/nacos/console/proxy/ServerStateProxy.java</t>
+  </si>
+  <si>
+    <t>ModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/sys/src/main/java/com/alibaba/nacos/sys/module/ModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>AbstractServerModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/sys/src/main/java/com/alibaba/nacos/sys/module/AbstractServerModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>AbstractConsoleModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/sys/src/main/java/com/alibaba/nacos/sys/module/AbstractConsoleModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>ConfigModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/config/src/main/java/com/alibaba/nacos/config/server/constant/ConfigModuleStateBuilder.java</t>
   </si>
   <si>
     <t>/v3/console/server/announcement</t>
@@ -1247,7 +1271,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1255,7 +1279,7 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="41.40625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.59375" style="2" customWidth="1"/>
@@ -1310,43 +1334,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="82" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="62" spans="5:6">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="62" spans="5:6">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="62" spans="5:6">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="62" spans="5:6">
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="82" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="82" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="8" ht="82" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>地址</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>/config/src/main/java/com/alibaba/nacos/config/server/constant/ConfigModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>EnvModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/sys/src/main/java/com/alibaba/nacos/sys/env/EnvModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>ConsoleAuthModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/console/src/main/java/com/alibaba/nacos/console/config/ConsoleAuthModuleStateBuilder.java</t>
   </si>
   <si>
     <t>/v3/console/server/announcement</t>
@@ -1019,6 +1031,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1271,15 +1290,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="41.40625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.59375" style="2" customWidth="1"/>
@@ -1366,43 +1385,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="82" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="62" spans="5:6">
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="62" spans="5:6">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="62" spans="5:6">
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="82" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="82" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" ht="82" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>地址</t>
   </si>
@@ -104,6 +104,18 @@
     <t>/nacos/console/src/main/java/com/alibaba/nacos/console/config/ConsoleAuthModuleStateBuilder.java</t>
   </si>
   <si>
+    <t>DistroModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/core/src/main/java/com/alibaba/nacos/core/config/DistroModuleStateBuilder.java</t>
+  </si>
+  <si>
+    <t>RaftModuleStateBuilder</t>
+  </si>
+  <si>
+    <t>/nacos/core/src/main/java/com/alibaba/nacos/core/config/RaftModuleStateBuilder.java</t>
+  </si>
+  <si>
     <t>/v3/console/server/announcement</t>
   </si>
   <si>
@@ -120,6 +132,18 @@
   </si>
   <si>
     <t>ServerStateProxy.getConsoleUiGuide</t>
+  </si>
+  <si>
+    <t>/v3/auth/user/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>UserControllerV3.login</t>
+  </si>
+  <si>
+    <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/controller/v3/UserControllerV3.java</t>
   </si>
 </sst>
 </file>
@@ -1290,18 +1314,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="41.40625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.59375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.03125" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.921875" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.921875" style="2" customWidth="1"/>
@@ -1409,44 +1433,74 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="82" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="62" spans="5:6">
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="62" spans="5:6">
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="82" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="82" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" ht="82" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="102" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>地址</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/controller/v3/UserControllerV3.java</t>
+  </si>
+  <si>
+    <t>IAuthenticationManager</t>
+  </si>
+  <si>
+    <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/authenticate/IAuthenticationManager.java</t>
+  </si>
+  <si>
+    <t>AbstractAuthenticationManager</t>
+  </si>
+  <si>
+    <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/authenticate/AbstractAuthenticationManager.java</t>
   </si>
 </sst>
 </file>
@@ -1314,12 +1326,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
@@ -1489,7 +1501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="102" spans="1:4">
+    <row r="14" ht="102" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1501,6 +1513,20 @@
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="102" spans="5:6">
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>地址</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/authenticate/AbstractAuthenticationManager.java</t>
+  </si>
+  <si>
+    <t>AbstractWebAuthFilter</t>
+  </si>
+  <si>
+    <t>/nacos/core/src/main/java/com/alibaba/nacos/core/auth/AbstractWebAuthFilter.java</t>
   </si>
 </sst>
 </file>
@@ -1326,12 +1332,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
@@ -1529,6 +1535,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="16" ht="62" spans="5:6">
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/nacos-api.xlsx
+++ b/doc/nacos-api.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17160"/>
+    <workbookView windowHeight="17160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="console接口记录" sheetId="1" r:id="rId1"/>
+    <sheet name="主要代码记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>地址</t>
   </si>
@@ -162,6 +163,39 @@
   </si>
   <si>
     <t>/nacos/core/src/main/java/com/alibaba/nacos/core/auth/AbstractWebAuthFilter.java</t>
+  </si>
+  <si>
+    <t>/v3/auth/user/list</t>
+  </si>
+  <si>
+    <t>UserControllerV3.getUserList</t>
+  </si>
+  <si>
+    <t>NacosUserServiceDirectImpl</t>
+  </si>
+  <si>
+    <t>/nacos/plugin-default-impl/nacos-default-auth-plugin/src/main/java/com/alibaba/nacos/plugin/auth/impl/users/NacosUserServiceDirectImpl.java</t>
+  </si>
+  <si>
+    <t>/v3/auth/user</t>
+  </si>
+  <si>
+    <t>UserControllerV3.create</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>原文件</t>
+  </si>
+  <si>
+    <t>ConsoleExceptionHandler</t>
+  </si>
+  <si>
+    <t>/nacos/console/src/main/java/com/alibaba/nacos/console/exception/ConsoleExceptionHandler.java</t>
+  </si>
+  <si>
+    <t>console统一异常处理</t>
   </si>
 </sst>
 </file>
@@ -174,7 +208,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +219,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,137 +695,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1332,12 +1376,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="6"/>
@@ -1543,6 +1587,82 @@
         <v>44</v>
       </c>
     </row>
+    <row r="17" ht="102" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="41.40625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.4921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.4921875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="62" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
